--- a/Civilworks cost/Spec for EMB PROT Works/Correted Work Programme/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Correted Work Programme/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Type_A_40M_35020_TO_35100_R" sheetId="13" r:id="rId10"/>
     <sheet name="TYPE_A_40M" sheetId="8" r:id="rId11"/>
     <sheet name="Type_B5_724M_0_TO_724" sheetId="18" r:id="rId12"/>
-    <sheet name="Type_B5_1165M_1015_TO_2180" sheetId="19" r:id="rId13"/>
+    <sheet name="Type_B5_1165M_1015_TO_2180" sheetId="21" r:id="rId13"/>
     <sheet name="Type_B5_1150M_9200_TO_10350" sheetId="20" r:id="rId14"/>
     <sheet name="FF_15M_at_KM_35500" sheetId="12" r:id="rId15"/>
     <sheet name="FF_15M_at_KM_4520" sheetId="11" r:id="rId16"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
   <si>
     <t>Code</t>
   </si>
@@ -267,18 +267,6 @@
     <t>Turfing 9842 sqm</t>
   </si>
   <si>
-    <t>Embankment Construction 5623 cum</t>
-  </si>
-  <si>
-    <t>Geotextile Filter 18105 cum</t>
-  </si>
-  <si>
-    <t>Geo_Bags 5451 cum</t>
-  </si>
-  <si>
-    <t>Turfing 15836 cum</t>
-  </si>
-  <si>
     <t>Embankment Construction 5551 cum</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
   </si>
   <si>
     <t>Turfing 15632 cum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Type_A_50M_965_TO_1015_R</t>
@@ -324,7 +309,7 @@
     <t>Type_B5_724M_0_TO_724</t>
   </si>
   <si>
-    <t>Type_B5_1165M_1015_TO_2180</t>
+    <t>Type_B5_1150M_9200_TO_10350</t>
   </si>
 </sst>
 </file>
@@ -385,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -423,24 +408,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,9 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,7 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2032,7 +2000,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,343 +2506,343 @@
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="5">
         <v>7</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="5">
         <v>7</v>
       </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
         <v>20</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="5">
         <v>0.04</v>
       </c>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="5">
         <v>8</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="5">
         <v>37</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="5">
         <v>30</v>
       </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>0.5</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="5">
         <v>0.5</v>
       </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>20</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="5">
         <v>0.54</v>
       </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="5">
         <v>38</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="5">
         <v>47</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="5">
         <v>10</v>
       </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
         <v>182</v>
       </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>100</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="5">
         <v>0.2</v>
       </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="5">
         <v>38</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="5">
         <v>47</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="5">
         <v>10</v>
       </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <v>55</v>
       </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="14">
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
         <v>0</v>
       </c>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="5">
         <v>48</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="5">
         <v>57</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>50</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="5">
         <v>0.1</v>
       </c>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="5">
         <v>58</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="5">
         <v>64</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="5">
         <v>7</v>
       </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>20</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="5">
         <v>0.04</v>
       </c>
       <c r="S7" s="4"/>
@@ -2898,11 +2866,6 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2913,7 +2876,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,7 +3002,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5">
         <v>8</v>
@@ -3096,7 +3059,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5">
         <v>38</v>
@@ -3153,7 +3116,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5">
         <v>38</v>
@@ -3210,7 +3173,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="5">
         <v>48</v>
@@ -8623,8 +8586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8648,7 +8611,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="2">
@@ -8657,13 +8620,13 @@
       <c r="C2" s="2">
         <v>87</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -8672,12 +8635,12 @@
         <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -8686,12 +8649,12 @@
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -8700,12 +8663,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -8714,12 +8677,12 @@
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -8728,12 +8691,12 @@
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -8742,12 +8705,12 @@
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>94</v>
+      <c r="A9" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -8756,12 +8719,12 @@
         <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>95</v>
+      <c r="A10" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -8769,14 +8732,14 @@
       <c r="C10" s="2">
         <v>64</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>95</v>
+      <c r="D10" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8827,42 +8790,42 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>

--- a/Civilworks cost/Spec for EMB PROT Works/Correted Work Programme/Resources.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/Correted Work Programme/Resources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="FF_30M_at_KM_1" sheetId="7" r:id="rId17"/>
     <sheet name="FF_30M_at_KM_1_Backup" sheetId="9" r:id="rId18"/>
     <sheet name="FF_30M_at_KM_1_Backup (2)" sheetId="10" r:id="rId19"/>
+    <sheet name="Rsec_850M_4600_TO_7800" sheetId="22" r:id="rId20"/>
+    <sheet name="Rsec_3850M_25200_TO_38500" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="97">
   <si>
     <t>Code</t>
   </si>
@@ -311,6 +313,24 @@
   <si>
     <t>Type_B5_1150M_9200_TO_10350</t>
   </si>
+  <si>
+    <t>Embankment Construction 3366 cum</t>
+  </si>
+  <si>
+    <t>Turfing 11722 sqm</t>
+  </si>
+  <si>
+    <t>Embankment Construction 15286 cum</t>
+  </si>
+  <si>
+    <t>Turfing 53230 sqm</t>
+  </si>
+  <si>
+    <t>Rsec_850M_4600_TO_7800</t>
+  </si>
+  <si>
+    <t>Rsec_3850M_25200_TO_38500</t>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,10 +487,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2437,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6737,7 +6753,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8004,6 +8020,654 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5">
+        <v>102</v>
+      </c>
+      <c r="G1" s="5">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5">
+        <v>201</v>
+      </c>
+      <c r="J1" s="5">
+        <v>202</v>
+      </c>
+      <c r="K1" s="5">
+        <v>203</v>
+      </c>
+      <c r="L1" s="5">
+        <v>204</v>
+      </c>
+      <c r="M1" s="5">
+        <v>205</v>
+      </c>
+      <c r="N1" s="5">
+        <v>206</v>
+      </c>
+      <c r="O1" s="5">
+        <v>207</v>
+      </c>
+      <c r="P1" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>301</v>
+      </c>
+      <c r="R1" s="5">
+        <v>401</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="5">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>50</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>20</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5">
+        <v>102</v>
+      </c>
+      <c r="G1" s="5">
+        <v>103</v>
+      </c>
+      <c r="H1" s="5">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5">
+        <v>201</v>
+      </c>
+      <c r="J1" s="5">
+        <v>202</v>
+      </c>
+      <c r="K1" s="5">
+        <v>203</v>
+      </c>
+      <c r="L1" s="5">
+        <v>204</v>
+      </c>
+      <c r="M1" s="5">
+        <v>205</v>
+      </c>
+      <c r="N1" s="5">
+        <v>206</v>
+      </c>
+      <c r="O1" s="5">
+        <v>207</v>
+      </c>
+      <c r="P1" s="5">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>301</v>
+      </c>
+      <c r="R1" s="5">
+        <v>401</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>100</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>20</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
@@ -8587,7 +9251,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8611,7 +9275,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="2">
@@ -8625,7 +9289,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="2">
@@ -8639,7 +9303,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="2">
@@ -8653,7 +9317,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="2">
@@ -8667,7 +9331,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="2">
@@ -8681,7 +9345,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="2">
@@ -8695,7 +9359,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="2">
@@ -8709,7 +9373,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="2">
@@ -8723,7 +9387,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="2">
@@ -8732,8 +9396,36 @@
       <c r="C10" s="2">
         <v>64</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
